--- a/Output/cutton_pool_result.xlsx
+++ b/Output/cutton_pool_result.xlsx
@@ -24,7 +24,7 @@
     <t>cutton 3</t>
   </si>
   <si>
-    <t>After 1953 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>After 1953 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">71.9976   </t>
